--- a/datasets/null_data.xlsx
+++ b/datasets/null_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>NA</t>
   </si>
@@ -33,15 +33,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -51,15 +42,6 @@
     <t>Janice</t>
   </si>
   <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Tracy</t>
-  </si>
-  <si>
     <t>continent</t>
   </si>
   <si>
@@ -67,9 +49,6 @@
   </si>
   <si>
     <t>AF</t>
-  </si>
-  <si>
-    <t>AS</t>
   </si>
 </sst>
 </file>
@@ -401,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -417,12 +396,12 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -433,57 +412,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
